--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://register.geonorge.no/subregister/sosi-kodelister/kartverket/kommunenummer-alle</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -815,7 +821,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.48046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1416,13 +1422,11 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -1452,7 +1456,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>101</v>
@@ -1460,10 +1464,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1563,14 +1567,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1592,13 +1596,13 @@
         <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1668,10 +1672,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1691,22 +1695,22 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -1755,7 +1759,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1767,18 +1771,18 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1798,19 +1802,19 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1860,7 +1864,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1872,18 +1876,18 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1903,20 +1907,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -1965,7 +1969,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -1977,18 +1981,18 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2008,20 +2012,20 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2070,7 +2074,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2082,18 +2086,18 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2113,22 +2117,22 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2177,7 +2181,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2189,10 +2193,10 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
